--- a/doc/game-config/room.xlsx
+++ b/doc/game-config/room.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="DramaCfg" sheetId="1" r:id="rId1"/>
+    <sheet name="RoomCfg" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,36 +27,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
-  <si>
-    <t>房间ID</t>
-  </si>
-  <si>
-    <t>步骤</t>
-  </si>
-  <si>
-    <t>npcId</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>param</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>banner</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
   <si>
     <t>i</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Signal of Heart</t>
+  </si>
+  <si>
+    <t>map4</t>
+  </si>
+  <si>
+    <t>https://dramai.world/img/banner4.png</t>
+  </si>
+  <si>
+    <t>The Mad Scientist</t>
+  </si>
+  <si>
+    <t>map3</t>
+  </si>
+  <si>
+    <t>https://dramai.world/img/banner3.png</t>
+  </si>
+  <si>
+    <t>Urban Idol Life</t>
+  </si>
+  <si>
+    <t>map2</t>
+  </si>
+  <si>
+    <t>https://dramai.world/img/banner2.png</t>
+  </si>
+  <si>
+    <t>Ranch Love Story</t>
+  </si>
+  <si>
+    <t>map1</t>
+  </si>
+  <si>
+    <t>https://dramai.world/img/banner1.png</t>
   </si>
 </sst>
 </file>
@@ -69,7 +102,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,11 +140,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF6AAB73"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.8"/>
@@ -128,14 +175,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,137 +657,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,23 +812,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1116,23 +1158,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58333333333333" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.58333333333333" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.58333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5833333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.58333333333333" style="1" customWidth="1"/>
-    <col min="5" max="6" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.58333333333333" style="1"/>
+    <col min="5" max="5" width="69.25" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.58333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1149,16 +1192,19 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
@@ -1169,184 +1215,138 @@
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+    <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="6">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6">
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="12">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="G5" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
-        <v>10006</v>
-      </c>
-      <c r="E4" s="8">
-        <v>112</v>
-      </c>
-      <c r="F4" s="9"/>
+      <c r="G6" s="12">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7">
+    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
-        <v>10007</v>
-      </c>
-      <c r="E5" s="10">
-        <v>112</v>
-      </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>10008</v>
-      </c>
-      <c r="E6" s="10">
-        <v>112</v>
-      </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="C7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
         <v>4</v>
       </c>
-      <c r="C7" s="11">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>10009</v>
-      </c>
-      <c r="E7" s="12">
-        <v>112</v>
-      </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6">
-        <v>10006</v>
-      </c>
-      <c r="E8" s="8">
-        <v>118</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6">
-        <v>10007</v>
-      </c>
-      <c r="E9" s="10">
-        <v>118</v>
-      </c>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6">
-        <v>10008</v>
-      </c>
-      <c r="E10" s="10">
-        <v>118</v>
-      </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6">
-        <v>10009</v>
-      </c>
-      <c r="E11" s="13">
-        <v>118</v>
-      </c>
-      <c r="F11" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B7">
     <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B4:B6">
     <cfRule type="duplicateValues" dxfId="0" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B10">
-    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
-  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" display="https://dramai.world/img/banner4.png" tooltip="https://dramai.world/img/banner4.png"/>
+    <hyperlink ref="E5" r:id="rId2" display="https://dramai.world/img/banner3.png"/>
+    <hyperlink ref="E6" r:id="rId3" display="https://dramai.world/img/banner2.png" tooltip="https://dramai.world/img/banner2.png"/>
+    <hyperlink ref="E7" r:id="rId4" display="https://dramai.world/img/banner1.png"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/doc/game-config/room.xlsx
+++ b/doc/game-config/room.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58333333333333" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1289,9 +1289,7 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="6">
         <v>2</v>
       </c>
@@ -1312,9 +1310,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="6">
         <v>1</v>
       </c>
